--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2032.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2032.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152292263666097</v>
+        <v>1.197497367858887</v>
       </c>
       <c r="B1">
-        <v>2.348858838594117</v>
+        <v>2.298686981201172</v>
       </c>
       <c r="C1">
-        <v>6.552868782726123</v>
+        <v>6.312384128570557</v>
       </c>
       <c r="D1">
-        <v>2.370281622405253</v>
+        <v>2.03056812286377</v>
       </c>
       <c r="E1">
-        <v>1.223495920484763</v>
+        <v>1.180909156799316</v>
       </c>
     </row>
   </sheetData>
